--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id198453_marktanteile-von-smartphone-betriebssystemen-am-absatz-im-laendervergleich-2015 (1).xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id198453_marktanteile-von-smartphone-betriebssystemen-am-absatz-im-laendervergleich-2015 (1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.bohn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Bohn\Developer\Bachelorarbeit_Repo\Quellen und Vorlagen\Excell-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38720" yWindow="2720" windowWidth="25160" windowHeight="16160" activeTab="1"/>
+    <workbookView xWindow="38715" yWindow="2715" windowWidth="25155" windowHeight="16155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -250,81 +250,16 @@
     <cellStyle name="Currency [0]" xfId="3"/>
     <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -376,6 +311,600 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Daten!$B$6:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Spanien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deutschland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frankreich</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Großbritannien</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.##</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daten!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9118394455320004E-3"/>
+                  <c:y val="-3.2891856259902999E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.113611261956451E-3"/>
+                  <c:y val="-9.2165898617511521E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3408337858693537E-3"/>
+                  <c:y val="-3.0721966205837174E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.113611261956451E-3"/>
+                  <c:y val="-5.6322954063129924E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="0" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Daten!$B$6:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Spanien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deutschland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frankreich</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Großbritannien</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.##</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daten!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6704168929346769E-3"/>
+                  <c:y val="-1.1264590812625985E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Daten!$B$6:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Spanien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deutschland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frankreich</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Großbritannien</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$E$6:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.##</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daten!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6704168929346482E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.089763941684758E-2"/>
+                  <c:y val="3.0721966205837174E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -466,456 +995,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Daten!$C$6:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.##</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>89.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Daten!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iOS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.00135504130848764"/>
-                  <c:y val="-0.0298197245033137"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="0" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Daten!$B$6:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Spanien</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Italien</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Frankreich</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Großbritannien</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>China</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Daten!$D$6:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.##</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Daten!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Windows</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Daten!$B$6:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Spanien</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Italien</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Frankreich</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Großbritannien</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>China</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Daten!$E$6:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.##</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Daten!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Andere</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Daten!$B$6:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Spanien</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Italien</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Frankreich</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Großbritannien</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>China</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Daten!$F$6:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.##</c:formatCode>
@@ -936,7 +1015,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.5</c:v>
@@ -956,11 +1035,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2127422144"/>
-        <c:axId val="-2127495904"/>
+        <c:axId val="539868088"/>
+        <c:axId val="539874752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127422144"/>
+        <c:axId val="539868088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,10 +1069,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1003,7 +1079,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127495904"/>
+        <c:crossAx val="539874752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1011,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127495904"/>
+        <c:axId val="539874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,10 +1125,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1062,10 +1135,10 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127422144"/>
+        <c:crossAx val="539868088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="hundreds"/>
         </c:dispUnits>
@@ -1096,10 +1169,7 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1120,10 +1190,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1142,7 +1209,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2046,33 +2113,33 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2128,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2136,7 +2203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -2144,12 +2211,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2157,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2165,7 +2232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2173,7 +2240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2195,30 +2262,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
@@ -2232,7 +2299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2252,7 +2319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -2272,7 +2339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2292,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -2312,7 +2379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2332,7 +2399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2352,7 +2419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2374,7 +2441,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="95" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id198453_marktanteile-von-smartphone-betriebssystemen-am-absatz-im-laendervergleich-2015 (1).xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id198453_marktanteile-von-smartphone-betriebssystemen-am-absatz-im-laendervergleich-2015 (1).xlsx
@@ -536,6 +536,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.113611261956451E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -844,33 +865,6 @@
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -905,6 +899,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3408337858694682E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -922,10 +937,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1035,11 +1047,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="539868088"/>
-        <c:axId val="539874752"/>
+        <c:axId val="157561760"/>
+        <c:axId val="157558232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539868088"/>
+        <c:axId val="157561760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1091,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539874752"/>
+        <c:crossAx val="157558232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1087,7 +1099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539874752"/>
+        <c:axId val="157558232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1147,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539868088"/>
+        <c:crossAx val="157561760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2262,7 +2274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
